--- a/Схеми/chart.xlsx
+++ b/Схеми/chart.xlsx
@@ -74,7 +74,7 @@
             <c:v>FCFS</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="38100">
               <a:prstDash val="lgDashDot"/>
             </a:ln>
           </c:spPr>
@@ -233,7 +233,7 @@
             <c:v>МАС CNet</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="38100">
               <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
@@ -391,6 +391,9 @@
           <c:tx>
             <c:v>МАС СНВ</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -506,46 +509,45 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.4</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.8</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.8</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52.8</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.8</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52.8</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.8</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>52.8</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>52.8</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52.8</c:v>
+                  <c:v>51.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="76616064"/>
-        <c:axId val="76617600"/>
+        <c:axId val="77356032"/>
+        <c:axId val="77390976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76616064"/>
+        <c:axId val="77356032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,10 +559,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="uk-UA"/>
+                  <a:rPr lang="uk-UA" sz="1400"/>
                   <a:t>Час роботи ГВС, с</a:t>
                 </a:r>
               </a:p>
@@ -571,14 +573,24 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76617600"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77390976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76617600"/>
+        <c:axId val="77390976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -592,17 +604,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="uk-UA"/>
+                  <a:rPr lang="uk-UA" sz="1400"/>
                   <a:t>Середній</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="uk-UA" baseline="0"/>
+                  <a:rPr lang="uk-UA" sz="1400" baseline="0"/>
                   <a:t> час простою АТМ, с</a:t>
                 </a:r>
-                <a:endParaRPr lang="uk-UA"/>
+                <a:endParaRPr lang="uk-UA" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -610,21 +622,51 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76616064"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77356032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln w="9525"/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
+  <c:spPr>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d/>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -634,16 +676,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -952,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1123,7 +1165,7 @@
         <v>50.6</v>
       </c>
       <c r="D12">
-        <v>48.4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1137,7 +1179,7 @@
         <v>55.2</v>
       </c>
       <c r="D13">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1151,7 +1193,7 @@
         <v>55.2</v>
       </c>
       <c r="D14">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1165,7 +1207,7 @@
         <v>55.2</v>
       </c>
       <c r="D15">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1179,7 +1221,7 @@
         <v>55.2</v>
       </c>
       <c r="D16">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1193,7 +1235,7 @@
         <v>55.2</v>
       </c>
       <c r="D17">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1207,7 +1249,7 @@
         <v>55.2</v>
       </c>
       <c r="D18">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1221,7 +1263,7 @@
         <v>55.2</v>
       </c>
       <c r="D19">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1235,7 +1277,7 @@
         <v>55.2</v>
       </c>
       <c r="D20">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1249,7 +1291,7 @@
         <v>55.2</v>
       </c>
       <c r="D21">
-        <v>52.8</v>
+        <v>51.3</v>
       </c>
     </row>
   </sheetData>
